--- a/Tech_Wage_Ratios.xlsx
+++ b/Tech_Wage_Ratios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,27 +446,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Wage_to_Housing_Ratio</t>
+          <t>State</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Wage_to_Transportation_Ratio</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Wage_to_Food_Ratio</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Wage_to_Entertainment_Ratio</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wage_to_Healthcare_Ratio</t>
+          <t>Cost_Living_Plus_Tax_Ratio</t>
         </is>
       </c>
     </row>
@@ -481,20 +466,13 @@
           <t>Albuquerque, NM (00-10740)</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>636</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
       </c>
       <c r="D2" t="n">
-        <v>1061</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1591</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3183</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2122</v>
+        <v>5.617681150835891</v>
       </c>
     </row>
     <row r="3">
@@ -508,20 +486,13 @@
           <t>Atlanta-Sandy Springs-Roswell, GA (00-12060)</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>519</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>1112</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1730</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3114</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2224</v>
+        <v>6.165646088395317</v>
       </c>
     </row>
     <row r="4">
@@ -535,20 +506,13 @@
           <t>Austin-Round Rock, TX (00-12420)</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>464</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>1142</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1650</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2970</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2320</v>
+        <v>4.978857490477003</v>
       </c>
     </row>
     <row r="5">
@@ -562,26 +526,19 @@
           <t>Baltimore-Columbia-Towson, MD (00-12580)</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>763</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>1526</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2289</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4161</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2953</v>
+        <v>6.878704817432418</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Boise</t>
+          <t>Boise City</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -589,20 +546,13 @@
           <t>Boise City, ID (00-14260)</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>598</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>1197</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1733</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3294</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2196</v>
+        <v>5.401789268384628</v>
       </c>
     </row>
     <row r="7">
@@ -616,20 +566,13 @@
           <t>Boston-Cambridge-Nashua, MA-NH (00-71650)</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>384</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>1201</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1922</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3203</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2402</v>
+        <v>5.713098016053147</v>
       </c>
     </row>
     <row r="8">
@@ -643,20 +586,13 @@
           <t>Buffalo-Cheektowaga-Niagara Falls, NY (00-15380)</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>765</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>1252</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1812</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3826</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2374</v>
+        <v>4.600186685244166</v>
       </c>
     </row>
     <row r="9">
@@ -670,20 +606,13 @@
           <t>Charleston, WV (00-16620)</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>389</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>WV</t>
+        </is>
       </c>
       <c r="D9" t="n">
-        <v>838</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1297</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2477</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1651</v>
+        <v>5.306621636602529</v>
       </c>
     </row>
     <row r="10">
@@ -697,20 +626,13 @@
           <t>Charleston-North Charleston, SC (00-16700)</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>517</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
       </c>
       <c r="D10" t="n">
-        <v>1114</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1725</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3293</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2195</v>
+        <v>7.038315558870105</v>
       </c>
     </row>
     <row r="11">
@@ -724,20 +646,13 @@
           <t>Charlotte-Concord-Gastonia, NC-SC (00-16740)</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>651</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
       </c>
       <c r="D11" t="n">
-        <v>1302</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2016</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3681</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2646</v>
+        <v>6.853666911613088</v>
       </c>
     </row>
     <row r="12">
@@ -751,20 +666,13 @@
           <t>Charlottesville, VA (00-16820)</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>612</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
       </c>
       <c r="D12" t="n">
-        <v>1225</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1896</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3463</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2489</v>
+        <v>6.477902462714288</v>
       </c>
     </row>
     <row r="13">
@@ -778,20 +686,13 @@
           <t>Chicago-Naperville-Elgin, IL-IN-WI (00-16980)</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>430</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>IL</t>
+        </is>
       </c>
       <c r="D13" t="n">
-        <v>1034</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1615</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2872</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2040</v>
+        <v>5.854697727804111</v>
       </c>
     </row>
     <row r="14">
@@ -805,20 +706,13 @@
           <t>Cleveland, TN (00-17420)</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>588</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
       </c>
       <c r="D14" t="n">
-        <v>962</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1392</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2940</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1825</v>
+        <v>4.646740352346071</v>
       </c>
     </row>
     <row r="15">
@@ -832,20 +726,13 @@
           <t>Cleveland-Elyria, OH (00-17460)</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>768</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>OH</t>
+        </is>
       </c>
       <c r="D15" t="n">
-        <v>1256</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1818</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3840</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2383</v>
+        <v>5.944938217721912</v>
       </c>
     </row>
     <row r="16">
@@ -859,20 +746,13 @@
           <t>Colorado Springs, CO (00-17820)</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>723</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
       </c>
       <c r="D16" t="n">
-        <v>1447</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2171</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3948</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2802</v>
+        <v>6.910245817326187</v>
       </c>
     </row>
     <row r="17">
@@ -886,20 +766,13 @@
           <t>Columbus, GA-AL (00-17980)</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>691</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
       </c>
       <c r="D17" t="n">
-        <v>1153</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1729</v>
-      </c>
-      <c r="F17" t="n">
-        <v>3459</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2306</v>
+        <v>6.346960373577158</v>
       </c>
     </row>
     <row r="18">
@@ -913,20 +786,13 @@
           <t>Columbus, IN (00-18020)</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>648</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
       </c>
       <c r="D18" t="n">
-        <v>1080</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1621</v>
-      </c>
-      <c r="F18" t="n">
-        <v>3242</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2161</v>
+        <v>5.784955255429013</v>
       </c>
     </row>
     <row r="19">
@@ -940,20 +806,13 @@
           <t>Columbus, OH (00-18140)</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>707</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>OH</t>
+        </is>
       </c>
       <c r="D19" t="n">
-        <v>1179</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1768</v>
-      </c>
-      <c r="F19" t="n">
-        <v>3537</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2358</v>
+        <v>6.183257951068359</v>
       </c>
     </row>
     <row r="20">
@@ -967,20 +826,13 @@
           <t>Dallas-Fort Worth-Arlington, TX (00-19100)</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>551</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
       </c>
       <c r="D20" t="n">
-        <v>1103</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1716</v>
-      </c>
-      <c r="F20" t="n">
-        <v>3089</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2340</v>
+        <v>5.740333955888987</v>
       </c>
     </row>
     <row r="21">
@@ -994,20 +846,13 @@
           <t>Denver-Aurora-Lakewood, CO (00-19740)</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>530</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
       </c>
       <c r="D21" t="n">
-        <v>1288</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1960</v>
-      </c>
-      <c r="F21" t="n">
-        <v>3468</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2576</v>
+        <v>6.536805227407803</v>
       </c>
     </row>
     <row r="22">
@@ -1021,20 +866,13 @@
           <t>Des Moines-West Des Moines, IA (00-19780)</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>818</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>IA</t>
+        </is>
       </c>
       <c r="D22" t="n">
-        <v>1339</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1938</v>
-      </c>
-      <c r="F22" t="n">
-        <v>4092</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2539</v>
+        <v>6.545618761932477</v>
       </c>
     </row>
     <row r="23">
@@ -1048,20 +886,13 @@
           <t>Detroit-Warren-Dearborn, MI (00-19820)</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>947</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
       </c>
       <c r="D23" t="n">
-        <v>1263</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1895</v>
-      </c>
-      <c r="F23" t="n">
-        <v>3791</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2527</v>
+        <v>6.358678932332548</v>
       </c>
     </row>
     <row r="24">
@@ -1075,20 +906,13 @@
           <t>Hartford-West Hartford-East Hartford, CT (00-73450)</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>772</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
       </c>
       <c r="D24" t="n">
-        <v>1415</v>
-      </c>
-      <c r="E24" t="n">
-        <v>2123</v>
-      </c>
-      <c r="F24" t="n">
-        <v>4247</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2740</v>
+        <v>6.53083958817767</v>
       </c>
     </row>
     <row r="25">
@@ -1102,20 +926,13 @@
           <t>Houston-The Woodlands-Sugar Land, TX (00-26420)</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>528</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
       </c>
       <c r="D25" t="n">
-        <v>981</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1527</v>
-      </c>
-      <c r="F25" t="n">
-        <v>2748</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2082</v>
+        <v>5.085546584415894</v>
       </c>
     </row>
     <row r="26">
@@ -1129,26 +946,19 @@
           <t>Huntsville, AL (00-26620)</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>930</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
       </c>
       <c r="D26" t="n">
-        <v>1522</v>
-      </c>
-      <c r="E26" t="n">
-        <v>2203</v>
-      </c>
-      <c r="F26" t="n">
-        <v>4652</v>
-      </c>
-      <c r="G26" t="n">
-        <v>2887</v>
+        <v>7.50538744372188</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Indianapolis</t>
+          <t>Indiana</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1156,20 +966,13 @@
           <t>Indianapolis-Carmel-Anderson, IN (00-26900)</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>689</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
       </c>
       <c r="D27" t="n">
-        <v>1149</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1724</v>
-      </c>
-      <c r="F27" t="n">
-        <v>3448</v>
-      </c>
-      <c r="G27" t="n">
-        <v>2299</v>
+        <v>6.027804269786235</v>
       </c>
     </row>
     <row r="28">
@@ -1183,20 +986,13 @@
           <t>Kansas City, MO-KS (00-28140)</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>728</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>KS</t>
+        </is>
       </c>
       <c r="D28" t="n">
-        <v>1154</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1731</v>
-      </c>
-      <c r="F28" t="n">
-        <v>3462</v>
-      </c>
-      <c r="G28" t="n">
-        <v>2308</v>
+        <v>6.165611315874409</v>
       </c>
     </row>
     <row r="29">
@@ -1210,20 +1006,13 @@
           <t>Las Vegas-Henderson-Paradise, NV (00-29820)</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>508</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
       </c>
       <c r="D29" t="n">
-        <v>939</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1453</v>
-      </c>
-      <c r="F29" t="n">
-        <v>2775</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1908</v>
+        <v>4.916428748758689</v>
       </c>
     </row>
     <row r="30">
@@ -1237,20 +1026,13 @@
           <t>Los Angeles-Long Beach-Anaheim, CA (00-31080)</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>379</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
       <c r="D30" t="n">
-        <v>1042</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1668</v>
-      </c>
-      <c r="F30" t="n">
-        <v>2780</v>
-      </c>
-      <c r="G30" t="n">
-        <v>2085</v>
+        <v>2.7721701912075</v>
       </c>
     </row>
     <row r="31">
@@ -1264,20 +1046,13 @@
           <t>Memphis, TN-MS-AR (00-32820)</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>789</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
       </c>
       <c r="D31" t="n">
-        <v>1052</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1578</v>
-      </c>
-      <c r="F31" t="n">
-        <v>3156</v>
-      </c>
-      <c r="G31" t="n">
-        <v>2104</v>
+        <v>5.792178896907306</v>
       </c>
     </row>
     <row r="32">
@@ -1291,20 +1066,13 @@
           <t>Miami-Fort Lauderdale-West Palm Beach, FL (00-33100)</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>373</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
       </c>
       <c r="D32" t="n">
-        <v>961</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1463</v>
-      </c>
-      <c r="F32" t="n">
-        <v>2588</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1923</v>
+        <v>4.475577963371116</v>
       </c>
     </row>
     <row r="33">
@@ -1318,26 +1086,19 @@
           <t>Milwaukee-Waukesha-West Allis, WI (00-33340)</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>714</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
       </c>
       <c r="D33" t="n">
-        <v>1190</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1785</v>
-      </c>
-      <c r="F33" t="n">
-        <v>3571</v>
-      </c>
-      <c r="G33" t="n">
-        <v>2381</v>
+        <v>6.061902672569814</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Minneapolis</t>
+          <t>Bloomington</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1345,20 +1106,13 @@
           <t>Minneapolis-St. Paul-Bloomington, MN-WI (00-33460)</t>
         </is>
       </c>
-      <c r="C34" t="n">
-        <v>603</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
       </c>
       <c r="D34" t="n">
-        <v>1300</v>
-      </c>
-      <c r="E34" t="n">
-        <v>2012</v>
-      </c>
-      <c r="F34" t="n">
-        <v>3674</v>
-      </c>
-      <c r="G34" t="n">
-        <v>2560</v>
+        <v>7.280524989742243</v>
       </c>
     </row>
     <row r="35">
@@ -1372,20 +1126,13 @@
           <t>Nashville-Davidson--Murfreesboro--Franklin, TN (00-34980)</t>
         </is>
       </c>
-      <c r="C35" t="n">
-        <v>445</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
       </c>
       <c r="D35" t="n">
-        <v>953</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1483</v>
-      </c>
-      <c r="F35" t="n">
-        <v>2670</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1963</v>
+        <v>5.335024829578618</v>
       </c>
     </row>
     <row r="36">
@@ -1399,209 +1146,153 @@
           <t>New Orleans-Metairie, LA (00-35380)</t>
         </is>
       </c>
-      <c r="C36" t="n">
-        <v>545</v>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>LA</t>
+        </is>
       </c>
       <c r="D36" t="n">
-        <v>1007</v>
-      </c>
-      <c r="E36" t="n">
-        <v>1559</v>
-      </c>
-      <c r="F36" t="n">
-        <v>2976</v>
-      </c>
-      <c r="G36" t="n">
-        <v>2046</v>
+        <v>5.741694488897878</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Oklahoma City</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Oklahoma City, OK (00-36420)</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>742</v>
+          <t>New York-Newark-Jersey City, NY-NJ-PA (00-35620)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
       </c>
       <c r="D37" t="n">
-        <v>1051</v>
-      </c>
-      <c r="E37" t="n">
-        <v>1577</v>
-      </c>
-      <c r="F37" t="n">
-        <v>3154</v>
-      </c>
-      <c r="G37" t="n">
-        <v>2175</v>
+        <v>5.407225853990326</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Omaha</t>
+          <t>Oklahoma City</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Omaha-Council Bluffs, NE-IA (00-36540)</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>804</v>
+          <t>Oklahoma City, OK (00-36420)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
       </c>
       <c r="D38" t="n">
-        <v>1206</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1810</v>
-      </c>
-      <c r="F38" t="n">
-        <v>3620</v>
-      </c>
-      <c r="G38" t="n">
-        <v>2413</v>
+        <v>5.853740444475822</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Orlando</t>
+          <t>Omaha</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Orlando-Kissimmee-Sanford, FL (00-36740)</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>486</v>
+          <t>Omaha-Council Bluffs, NE-IA (00-36540)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>IA</t>
+        </is>
       </c>
       <c r="D39" t="n">
-        <v>1046</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1620</v>
-      </c>
-      <c r="F39" t="n">
-        <v>2958</v>
-      </c>
-      <c r="G39" t="n">
-        <v>2061</v>
+        <v>6.345209582039976</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Orlando</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Philadelphia-Camden-Wilmington, PA-NJ-DE-MD (00-37980)</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>485</v>
+          <t>Orlando-Kissimmee-Sanford, FL (00-36740)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
       </c>
       <c r="D40" t="n">
-        <v>1110</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1727</v>
-      </c>
-      <c r="F40" t="n">
-        <v>3109</v>
-      </c>
-      <c r="G40" t="n">
-        <v>2221</v>
+        <v>4.979492519541238</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Phoenix</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Phoenix-Mesa-Scottsdale, AZ (00-38060)</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>552</v>
+          <t>Philadelphia-Camden-Wilmington, PA-NJ-DE-MD (00-37980)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
       </c>
       <c r="D41" t="n">
-        <v>1104</v>
-      </c>
-      <c r="E41" t="n">
-        <v>1709</v>
-      </c>
-      <c r="F41" t="n">
-        <v>3122</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2244</v>
+        <v>6.212041887943302</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Pittsburgh</t>
+          <t>Phoenix</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Pittsburgh, PA (00-38300)</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>664</v>
+          <t>Phoenix-Mesa-Scottsdale, AZ (00-38060)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>AZ</t>
+        </is>
       </c>
       <c r="D42" t="n">
-        <v>1107</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1661</v>
-      </c>
-      <c r="F42" t="n">
-        <v>3323</v>
-      </c>
-      <c r="G42" t="n">
-        <v>2144</v>
+        <v>5.503169581501973</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Pittsburgh</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Portland-South Portland, ME (00-76750)</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>428</v>
+          <t>Pittsburgh, PA (00-38300)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
       </c>
       <c r="D43" t="n">
-        <v>1041</v>
-      </c>
-      <c r="E43" t="n">
-        <v>1584</v>
-      </c>
-      <c r="F43" t="n">
-        <v>2803</v>
-      </c>
-      <c r="G43" t="n">
-        <v>2082</v>
+        <v>5.324852875292947</v>
       </c>
     </row>
     <row r="44">
@@ -1612,347 +1303,276 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Portland-Vancouver-Hillsboro, OR-WA (00-38900)</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>483</v>
+          <t>Portland-South Portland, ME (00-76750)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>ME</t>
+        </is>
       </c>
       <c r="D44" t="n">
-        <v>1174</v>
-      </c>
-      <c r="E44" t="n">
-        <v>1787</v>
-      </c>
-      <c r="F44" t="n">
-        <v>3162</v>
-      </c>
-      <c r="G44" t="n">
-        <v>2349</v>
+        <v>5.30971590217921</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Providence</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Providence-Warwick, RI-MA (00-77200)</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>628</v>
+          <t>Portland-Vancouver-Hillsboro, OR-WA (00-38900)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
       </c>
       <c r="D45" t="n">
-        <v>1256</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1944</v>
-      </c>
-      <c r="F45" t="n">
-        <v>3550</v>
-      </c>
-      <c r="G45" t="n">
-        <v>2474</v>
+        <v>5.911396323791516</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Raleigh</t>
+          <t>Providence</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Raleigh, NC (00-39580)</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>701</v>
+          <t>Providence-Warwick, RI-MA (00-77200)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
       </c>
       <c r="D46" t="n">
-        <v>1403</v>
-      </c>
-      <c r="E46" t="n">
-        <v>2104</v>
-      </c>
-      <c r="F46" t="n">
-        <v>3826</v>
-      </c>
-      <c r="G46" t="n">
-        <v>2630</v>
+        <v>5.718443075420731</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sacramento</t>
+          <t>Raleigh</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sacramento--Roseville--Arden-Arcade, CA (00-40900)</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>527</v>
+          <t>Raleigh, NC (00-39580)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
       </c>
       <c r="D47" t="n">
-        <v>1204</v>
-      </c>
-      <c r="E47" t="n">
-        <v>1873</v>
-      </c>
-      <c r="F47" t="n">
-        <v>3372</v>
-      </c>
-      <c r="G47" t="n">
-        <v>2480</v>
+        <v>6.680341566356828</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Salt Lake City</t>
+          <t>Sacramento</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Salt Lake City, UT (00-41620)</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>505</v>
+          <t>Sacramento--Roseville--Arden-Arcade, CA (00-40900)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
       <c r="D48" t="n">
-        <v>1089</v>
-      </c>
-      <c r="E48" t="n">
-        <v>1685</v>
-      </c>
-      <c r="F48" t="n">
-        <v>3078</v>
-      </c>
-      <c r="G48" t="n">
-        <v>2145</v>
+        <v>3.692062760891046</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>San Antonio</t>
+          <t>Lake City</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>San Antonio-New Braunfels, TX (00-41700)</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>610</v>
+          <t>Salt Lake City, UT (00-41620)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>UT</t>
+        </is>
       </c>
       <c r="D49" t="n">
-        <v>1118</v>
-      </c>
-      <c r="E49" t="n">
-        <v>1678</v>
-      </c>
-      <c r="F49" t="n">
-        <v>3051</v>
-      </c>
-      <c r="G49" t="n">
-        <v>2165</v>
+        <v>6.192012023757786</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>San Diego</t>
+          <t>San Antonio</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>San Diego-Carlsbad, CA (00-41740)</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>379</v>
+          <t>San Antonio-New Braunfels, TX (00-41700)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
       </c>
       <c r="D50" t="n">
-        <v>1090</v>
-      </c>
-      <c r="E50" t="n">
-        <v>1744</v>
-      </c>
-      <c r="F50" t="n">
-        <v>2907</v>
-      </c>
-      <c r="G50" t="n">
-        <v>2180</v>
+        <v>5.121380879266929</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>San Diego</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>San Francisco-Oakland-Hayward, CA (00-41860)</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>365</v>
+          <t>San Diego-Carlsbad, CA (00-41740)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
       <c r="D51" t="n">
-        <v>1297</v>
-      </c>
-      <c r="E51" t="n">
-        <v>1946</v>
-      </c>
-      <c r="F51" t="n">
-        <v>2920</v>
-      </c>
-      <c r="G51" t="n">
-        <v>2336</v>
+        <v>3.258877099975888</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>San Jose</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>San Jose-Sunnyvale-Santa Clara, CA (00-41940)</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>526</v>
+          <t>San Francisco-Oakland-Hayward, CA (00-41860)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
       <c r="D52" t="n">
-        <v>1733</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2678</v>
-      </c>
-      <c r="F52" t="n">
-        <v>4209</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3273</v>
+        <v>3.898678349125944</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Seattle</t>
+          <t>San Jose</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Seattle-Tacoma-Bellevue, WA (00-42660)</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>524</v>
+          <t>San Jose-Sunnyvale-Santa Clara, CA (00-41940)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
       <c r="D53" t="n">
-        <v>1312</v>
-      </c>
-      <c r="E53" t="n">
-        <v>2099</v>
-      </c>
-      <c r="F53" t="n">
-        <v>3499</v>
-      </c>
-      <c r="G53" t="n">
-        <v>2624</v>
+        <v>5.845959326488297</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>St. Louis</t>
+          <t>Seattle</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>St. Louis, MO-IL (00-41180)</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>710</v>
+          <t>Seattle-Tacoma-Bellevue, WA (00-42660)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
       </c>
       <c r="D54" t="n">
-        <v>1065</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1597</v>
-      </c>
-      <c r="F54" t="n">
-        <v>3195</v>
-      </c>
-      <c r="G54" t="n">
-        <v>2130</v>
+        <v>6.79576128836627</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Trenton</t>
+          <t>St. Louis</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Trenton, NJ (00-45940)</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>760</v>
+          <t>St. Louis, MO-IL (00-41180)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>IL</t>
+        </is>
       </c>
       <c r="D55" t="n">
-        <v>1394</v>
-      </c>
-      <c r="E55" t="n">
-        <v>2092</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3804</v>
-      </c>
-      <c r="G55" t="n">
-        <v>2699</v>
+        <v>5.213277540241449</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Washington DC</t>
+          <t>Trenton</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>Trenton, NJ (00-45940)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>6.251961765662298</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Alexandria</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
           <t>Washington DC-Arlington-Alexandria, DC-VA-MD-WV (00-47900)</t>
         </is>
       </c>
-      <c r="C56" t="n">
-        <v>399</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1175</v>
-      </c>
-      <c r="E56" t="n">
-        <v>1816</v>
-      </c>
-      <c r="F56" t="n">
-        <v>2854</v>
-      </c>
-      <c r="G56" t="n">
-        <v>2220</v>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>9.42727945939717</v>
       </c>
     </row>
   </sheetData>
